--- a/modelos/OBALEI4421040/OBALEI4421040_Sell in_metricas.xlsx
+++ b/modelos/OBALEI4421040/OBALEI4421040_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,1141 +473,1181 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44712</v>
+        <v>44698</v>
       </c>
       <c r="B2" t="n">
-        <v>432.3745826436411</v>
+        <v>153.2426816942817</v>
       </c>
       <c r="C2" t="n">
-        <v>41.43460435233637</v>
+        <v>-227.7301242518576</v>
       </c>
       <c r="D2" t="n">
-        <v>788.1178067569803</v>
+        <v>493.5811821549115</v>
       </c>
       <c r="E2" t="n">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44705</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44715</v>
+        <v>44705</v>
       </c>
       <c r="B3" t="n">
-        <v>127.0901002597227</v>
+        <v>194.2499273422657</v>
       </c>
       <c r="C3" t="n">
-        <v>-262.7445643391862</v>
+        <v>-177.5546294521508</v>
       </c>
       <c r="D3" t="n">
-        <v>493.8962879438787</v>
+        <v>564.7829673694413</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44712</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44719</v>
+        <v>44712</v>
       </c>
       <c r="B4" t="n">
-        <v>379.3607003306219</v>
+        <v>390.4050718462403</v>
       </c>
       <c r="C4" t="n">
-        <v>-22.18492338179295</v>
+        <v>-3.816298996023813</v>
       </c>
       <c r="D4" t="n">
-        <v>755.8744465304102</v>
+        <v>760.8401506703012</v>
       </c>
       <c r="E4" t="n">
-        <v>516</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44712</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44726</v>
+        <v>44715</v>
       </c>
       <c r="B5" t="n">
-        <v>222.9570869072082</v>
+        <v>107.7837098461873</v>
       </c>
       <c r="C5" t="n">
-        <v>-171.3512025309682</v>
+        <v>-277.8035431633205</v>
       </c>
       <c r="D5" t="n">
-        <v>608.390661305934</v>
+        <v>489.0342188221943</v>
       </c>
       <c r="E5" t="n">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44719</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44733</v>
+        <v>44719</v>
       </c>
       <c r="B6" t="n">
-        <v>127.7895812911817</v>
+        <v>359.1889558436364</v>
       </c>
       <c r="C6" t="n">
-        <v>-269.8237958345019</v>
+        <v>7.400719537365259</v>
       </c>
       <c r="D6" t="n">
-        <v>522.9507636363871</v>
+        <v>749.5897635093422</v>
       </c>
       <c r="E6" t="n">
-        <v>312</v>
+        <v>516</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44726</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44740</v>
+        <v>44726</v>
       </c>
       <c r="B7" t="n">
-        <v>142.2496341316085</v>
+        <v>200.6266127974376</v>
       </c>
       <c r="C7" t="n">
-        <v>-257.8587805559103</v>
+        <v>-151.0392598162649</v>
       </c>
       <c r="D7" t="n">
-        <v>528.6357425515289</v>
+        <v>546.5249886579388</v>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44733</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44743</v>
+        <v>44733</v>
       </c>
       <c r="B8" t="n">
-        <v>-86.18190387368429</v>
+        <v>112.0831125576741</v>
       </c>
       <c r="C8" t="n">
-        <v>-454.9560987130696</v>
+        <v>-264.4257020803796</v>
       </c>
       <c r="D8" t="n">
-        <v>271.6982052304772</v>
+        <v>501.6821182943946</v>
       </c>
       <c r="E8" t="n">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44740</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44747</v>
+        <v>44740</v>
       </c>
       <c r="B9" t="n">
-        <v>241.2903205976786</v>
+        <v>124.8316292878586</v>
       </c>
       <c r="C9" t="n">
-        <v>-104.2573559785165</v>
+        <v>-221.3078553524286</v>
       </c>
       <c r="D9" t="n">
-        <v>613.5873855916083</v>
+        <v>489.8197780571019</v>
       </c>
       <c r="E9" t="n">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44754</v>
+        <v>44743</v>
       </c>
       <c r="B10" t="n">
-        <v>317.2381981558582</v>
+        <v>-146.4758827285608</v>
       </c>
       <c r="C10" t="n">
-        <v>-87.64756786310635</v>
+        <v>-494.919838712129</v>
       </c>
       <c r="D10" t="n">
-        <v>700.8698477976228</v>
+        <v>218.0769944278647</v>
       </c>
       <c r="E10" t="n">
-        <v>456</v>
+        <v>144</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44747</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44761</v>
+        <v>44747</v>
       </c>
       <c r="B11" t="n">
-        <v>330.8998405026006</v>
+        <v>181.60116629701</v>
       </c>
       <c r="C11" t="n">
-        <v>-30.26726545654096</v>
+        <v>-151.6191970430014</v>
       </c>
       <c r="D11" t="n">
-        <v>689.175582212391</v>
+        <v>544.0326131853585</v>
       </c>
       <c r="E11" t="n">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44754</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44768</v>
+        <v>44754</v>
       </c>
       <c r="B12" t="n">
-        <v>291.7456600414154</v>
+        <v>298.7096433302447</v>
       </c>
       <c r="C12" t="n">
-        <v>-78.1116641745715</v>
+        <v>-82.1389291946346</v>
       </c>
       <c r="D12" t="n">
-        <v>662.9583110202883</v>
+        <v>666.2613764234557</v>
       </c>
       <c r="E12" t="n">
-        <v>300</v>
+        <v>456</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44761</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44775</v>
+        <v>44761</v>
       </c>
       <c r="B13" t="n">
-        <v>325.8153779843317</v>
+        <v>307.5368232690138</v>
       </c>
       <c r="C13" t="n">
-        <v>-48.20399754282702</v>
+        <v>-61.01522798034357</v>
       </c>
       <c r="D13" t="n">
-        <v>666.2183283525347</v>
+        <v>667.6196406514276</v>
       </c>
       <c r="E13" t="n">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44768</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44782</v>
+        <v>44768</v>
       </c>
       <c r="B14" t="n">
-        <v>379.2156623236388</v>
+        <v>287.1832406183439</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.297684973640046</v>
+        <v>-79.62311864606993</v>
       </c>
       <c r="D14" t="n">
-        <v>759.8651660835775</v>
+        <v>654.1384026974555</v>
       </c>
       <c r="E14" t="n">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44775</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44789</v>
+        <v>44775</v>
       </c>
       <c r="B15" t="n">
-        <v>312.0059851900134</v>
+        <v>315.381864694876</v>
       </c>
       <c r="C15" t="n">
-        <v>-29.39431952876019</v>
+        <v>-58.9789082335227</v>
       </c>
       <c r="D15" t="n">
-        <v>683.3895094560878</v>
+        <v>685.6942682455133</v>
       </c>
       <c r="E15" t="n">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44782</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44796</v>
+        <v>44782</v>
       </c>
       <c r="B16" t="n">
-        <v>185.5861685889823</v>
+        <v>358.0508388313752</v>
       </c>
       <c r="C16" t="n">
-        <v>-152.9043983070328</v>
+        <v>-3.623090583373018</v>
       </c>
       <c r="D16" t="n">
-        <v>559.9132871904068</v>
+        <v>735.0301928459057</v>
       </c>
       <c r="E16" t="n">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44789</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44803</v>
+        <v>44789</v>
       </c>
       <c r="B17" t="n">
-        <v>119.8494391988825</v>
+        <v>280.0200394664045</v>
       </c>
       <c r="C17" t="n">
-        <v>-245.6429214157081</v>
+        <v>-79.15975275459741</v>
       </c>
       <c r="D17" t="n">
-        <v>510.5217489486111</v>
+        <v>641.8120119836741</v>
       </c>
       <c r="E17" t="n">
-        <v>228</v>
+        <v>384</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44796</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44806</v>
+        <v>44796</v>
       </c>
       <c r="B18" t="n">
-        <v>-109.7837367679504</v>
+        <v>160.3994382706018</v>
       </c>
       <c r="C18" t="n">
-        <v>-485.3198668414216</v>
+        <v>-230.8552252642469</v>
       </c>
       <c r="D18" t="n">
-        <v>238.2583826163804</v>
+        <v>519.8137441168484</v>
       </c>
       <c r="E18" t="n">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44803</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
       <c r="B19" t="n">
-        <v>248.5011563809908</v>
+        <v>107.3996518718224</v>
       </c>
       <c r="C19" t="n">
-        <v>-156.6138996372461</v>
+        <v>-257.7001481340274</v>
       </c>
       <c r="D19" t="n">
-        <v>607.3921287372888</v>
+        <v>476.3646130790491</v>
       </c>
       <c r="E19" t="n">
-        <v>408</v>
+        <v>228</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44817</v>
+        <v>44806</v>
       </c>
       <c r="B20" t="n">
-        <v>547.54521722002</v>
+        <v>-126.0379367935238</v>
       </c>
       <c r="C20" t="n">
-        <v>173.6049244057601</v>
+        <v>-476.4970375143885</v>
       </c>
       <c r="D20" t="n">
-        <v>892.4316328802273</v>
+        <v>243.6613077029808</v>
       </c>
       <c r="E20" t="n">
-        <v>672</v>
+        <v>192</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44824</v>
+        <v>44810</v>
       </c>
       <c r="B21" t="n">
-        <v>742.1941057911301</v>
+        <v>232.1403349048772</v>
       </c>
       <c r="C21" t="n">
-        <v>391.5840415458707</v>
+        <v>-123.6855065390218</v>
       </c>
       <c r="D21" t="n">
-        <v>1097.115276192135</v>
+        <v>613.541512000156</v>
       </c>
       <c r="E21" t="n">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44817</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44831</v>
+        <v>44817</v>
       </c>
       <c r="B22" t="n">
-        <v>728.4809289507034</v>
+        <v>528.7763794612606</v>
       </c>
       <c r="C22" t="n">
-        <v>312.6957301576488</v>
+        <v>153.752041971158</v>
       </c>
       <c r="D22" t="n">
-        <v>1091.889115660083</v>
+        <v>880.8829367111742</v>
       </c>
       <c r="E22" t="n">
-        <v>372</v>
+        <v>672</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44824</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44838</v>
+        <v>44824</v>
       </c>
       <c r="B23" t="n">
-        <v>563.8044843635738</v>
+        <v>726.3286048361022</v>
       </c>
       <c r="C23" t="n">
-        <v>210.0979545122379</v>
+        <v>385.735569080779</v>
       </c>
       <c r="D23" t="n">
-        <v>923.8777308601938</v>
+        <v>1085.845770739897</v>
       </c>
       <c r="E23" t="n">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44831</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44845</v>
+        <v>44831</v>
       </c>
       <c r="B24" t="n">
-        <v>409.6328565317062</v>
+        <v>708.7417773698567</v>
       </c>
       <c r="C24" t="n">
-        <v>51.22090998122222</v>
+        <v>329.1770234988425</v>
       </c>
       <c r="D24" t="n">
-        <v>803.5272831315777</v>
+        <v>1052.479018177928</v>
       </c>
       <c r="E24" t="n">
-        <v>540</v>
+        <v>372</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44838</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44852</v>
+        <v>44838</v>
       </c>
       <c r="B25" t="n">
-        <v>367.6333586075385</v>
+        <v>543.197788516685</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.72664518941579</v>
+        <v>181.1220656555878</v>
       </c>
       <c r="D25" t="n">
-        <v>725.2024504852446</v>
+        <v>931.8004193699464</v>
       </c>
       <c r="E25" t="n">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44845</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44859</v>
+        <v>44845</v>
       </c>
       <c r="B26" t="n">
-        <v>369.8578437792133</v>
+        <v>397.1809954626112</v>
       </c>
       <c r="C26" t="n">
-        <v>16.426092530964</v>
+        <v>39.85845580428645</v>
       </c>
       <c r="D26" t="n">
-        <v>734.4537901352367</v>
+        <v>765.5113172919151</v>
       </c>
       <c r="E26" t="n">
-        <v>756</v>
+        <v>540</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44852</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44865</v>
+        <v>44852</v>
       </c>
       <c r="B27" t="n">
-        <v>100.0894187178813</v>
+        <v>352.1591086646682</v>
       </c>
       <c r="C27" t="n">
-        <v>-272.7584967209659</v>
+        <v>-5.960494506647339</v>
       </c>
       <c r="D27" t="n">
-        <v>464.815506704465</v>
+        <v>713.3536996050676</v>
       </c>
       <c r="E27" t="n">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44859</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44869</v>
+        <v>44859</v>
       </c>
       <c r="B28" t="n">
-        <v>239.5963410018906</v>
+        <v>347.4764352672216</v>
       </c>
       <c r="C28" t="n">
-        <v>-105.9267770258238</v>
+        <v>-14.3497292964784</v>
       </c>
       <c r="D28" t="n">
-        <v>582.9147473898101</v>
+        <v>717.120004550774</v>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>756</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44866</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44873</v>
+        <v>44865</v>
       </c>
       <c r="B29" t="n">
-        <v>481.3584407761077</v>
+        <v>70.80437254867584</v>
       </c>
       <c r="C29" t="n">
-        <v>142.9096916036344</v>
+        <v>-321.5792019859012</v>
       </c>
       <c r="D29" t="n">
-        <v>827.346542931198</v>
+        <v>392.6570451371698</v>
       </c>
       <c r="E29" t="n">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44880</v>
+        <v>44869</v>
       </c>
       <c r="B30" t="n">
-        <v>469.9248807479058</v>
+        <v>232.8634053627283</v>
       </c>
       <c r="C30" t="n">
-        <v>120.8496102746927</v>
+        <v>-103.29985648877</v>
       </c>
       <c r="D30" t="n">
-        <v>857.1495006954663</v>
+        <v>611.4644616242691</v>
       </c>
       <c r="E30" t="n">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
       <c r="B31" t="n">
-        <v>456.4906641819832</v>
+        <v>484.9743839171761</v>
       </c>
       <c r="C31" t="n">
-        <v>123.6839164416662</v>
+        <v>116.6840250797165</v>
       </c>
       <c r="D31" t="n">
-        <v>810.5561316468662</v>
+        <v>849.7130586232129</v>
       </c>
       <c r="E31" t="n">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44880</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="B32" t="n">
-        <v>437.1404833803522</v>
+        <v>499.017979944806</v>
       </c>
       <c r="C32" t="n">
-        <v>89.98025926384891</v>
+        <v>162.9906715047115</v>
       </c>
       <c r="D32" t="n">
-        <v>808.0694316146307</v>
+        <v>861.1089224480797</v>
       </c>
       <c r="E32" t="n">
-        <v>420</v>
+        <v>348</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44897</v>
+        <v>44887</v>
       </c>
       <c r="B33" t="n">
-        <v>172.9073995857351</v>
+        <v>505.0026740580493</v>
       </c>
       <c r="C33" t="n">
-        <v>-163.2733560751087</v>
+        <v>162.9600259559665</v>
       </c>
       <c r="D33" t="n">
-        <v>530.0104038606696</v>
+        <v>857.3898060534156</v>
       </c>
       <c r="E33" t="n">
-        <v>600</v>
+        <v>468</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
       <c r="B34" t="n">
-        <v>512.0326773619902</v>
+        <v>469.7552345732984</v>
       </c>
       <c r="C34" t="n">
-        <v>158.3621331866175</v>
+        <v>96.78148216827047</v>
       </c>
       <c r="D34" t="n">
-        <v>886.0507069130819</v>
+        <v>812.9866965123254</v>
       </c>
       <c r="E34" t="n">
-        <v>828</v>
+        <v>420</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44915</v>
+        <v>44897</v>
       </c>
       <c r="B35" t="n">
-        <v>653.4554839171376</v>
+        <v>185.9004844637435</v>
       </c>
       <c r="C35" t="n">
-        <v>299.0693334351844</v>
+        <v>-150.1387742520425</v>
       </c>
       <c r="D35" t="n">
-        <v>1018.091963693526</v>
+        <v>516.6600120371609</v>
       </c>
       <c r="E35" t="n">
-        <v>348</v>
+        <v>600</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
       <c r="B36" t="n">
-        <v>739.4526768387506</v>
+        <v>473.1756116105303</v>
       </c>
       <c r="C36" t="n">
-        <v>370.9974357182497</v>
+        <v>107.6803110144765</v>
       </c>
       <c r="D36" t="n">
-        <v>1110.560944948966</v>
+        <v>832.9536055621854</v>
       </c>
       <c r="E36" t="n">
-        <v>324</v>
+        <v>828</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
       <c r="B37" t="n">
-        <v>663.9269331745112</v>
+        <v>619.903063745577</v>
       </c>
       <c r="C37" t="n">
-        <v>302.1725404234893</v>
+        <v>264.4803108939792</v>
       </c>
       <c r="D37" t="n">
-        <v>1031.237562721525</v>
+        <v>950.2611682756171</v>
       </c>
       <c r="E37" t="n">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
       <c r="B38" t="n">
-        <v>490.1940112759796</v>
+        <v>702.2092018193756</v>
       </c>
       <c r="C38" t="n">
-        <v>135.4368966541857</v>
+        <v>343.2266325394253</v>
       </c>
       <c r="D38" t="n">
-        <v>815.3336870462041</v>
+        <v>1055.164522445802</v>
       </c>
       <c r="E38" t="n">
-        <v>744</v>
+        <v>324</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
       <c r="B39" t="n">
-        <v>345.4784767340965</v>
+        <v>645.7639580335323</v>
       </c>
       <c r="C39" t="n">
-        <v>-25.09625903474562</v>
+        <v>290.8464958368265</v>
       </c>
       <c r="D39" t="n">
-        <v>729.5166854920756</v>
+        <v>990.0926694004899</v>
       </c>
       <c r="E39" t="n">
-        <v>1032</v>
+        <v>468</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
       <c r="B40" t="n">
-        <v>328.8527793875955</v>
+        <v>479.9531028101449</v>
       </c>
       <c r="C40" t="n">
-        <v>-51.54223091199032</v>
+        <v>117.4078032129218</v>
       </c>
       <c r="D40" t="n">
-        <v>663.3953142760632</v>
+        <v>860.9968108895899</v>
       </c>
       <c r="E40" t="n">
-        <v>480</v>
+        <v>744</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
       <c r="B41" t="n">
-        <v>301.3511313832652</v>
+        <v>333.6553880519985</v>
       </c>
       <c r="C41" t="n">
-        <v>-51.92893270929809</v>
+        <v>-8.95487067697286</v>
       </c>
       <c r="D41" t="n">
-        <v>660.0375939533558</v>
+        <v>710.2339837618106</v>
       </c>
       <c r="E41" t="n">
-        <v>180</v>
+        <v>1032</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44960</v>
+        <v>44950</v>
       </c>
       <c r="B42" t="n">
-        <v>33.56456520593966</v>
+        <v>305.8989588561618</v>
       </c>
       <c r="C42" t="n">
-        <v>-296.5760995903512</v>
+        <v>-52.86549365369123</v>
       </c>
       <c r="D42" t="n">
-        <v>423.4851868395034</v>
+        <v>677.5824617520676</v>
       </c>
       <c r="E42" t="n">
-        <v>96</v>
+        <v>480</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
       <c r="B43" t="n">
-        <v>258.2983576352492</v>
+        <v>283.6380665489658</v>
       </c>
       <c r="C43" t="n">
-        <v>-113.6988843515775</v>
+        <v>-71.3851333406427</v>
       </c>
       <c r="D43" t="n">
-        <v>638.8415333561377</v>
+        <v>644.7995776314931</v>
       </c>
       <c r="E43" t="n">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44971</v>
+        <v>44960</v>
       </c>
       <c r="B44" t="n">
-        <v>252.806306889098</v>
+        <v>23.89083287045323</v>
       </c>
       <c r="C44" t="n">
-        <v>-124.957404974952</v>
+        <v>-339.894196250863</v>
       </c>
       <c r="D44" t="n">
-        <v>618.3028533358204</v>
+        <v>368.758249570845</v>
       </c>
       <c r="E44" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44980</v>
+        <v>44964</v>
       </c>
       <c r="B45" t="n">
-        <v>-134.7954501527796</v>
+        <v>250.2159314113971</v>
       </c>
       <c r="C45" t="n">
-        <v>-466.8764224551799</v>
+        <v>-113.5895468017576</v>
       </c>
       <c r="D45" t="n">
-        <v>223.2775441160097</v>
+        <v>615.5782996296138</v>
       </c>
       <c r="E45" t="n">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44978</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44985</v>
+        <v>44971</v>
       </c>
       <c r="B46" t="n">
-        <v>545.2979295589619</v>
+        <v>248.0213690132851</v>
       </c>
       <c r="C46" t="n">
-        <v>187.8378338430296</v>
+        <v>-116.8940685510022</v>
       </c>
       <c r="D46" t="n">
-        <v>902.6801190716377</v>
+        <v>591.1808100479317</v>
       </c>
       <c r="E46" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44988</v>
+        <v>44980</v>
       </c>
       <c r="B47" t="n">
-        <v>378.0891456229992</v>
+        <v>-145.5709568117006</v>
       </c>
       <c r="C47" t="n">
-        <v>15.6776710255522</v>
+        <v>-503.7329294630585</v>
       </c>
       <c r="D47" t="n">
-        <v>726.8849749671064</v>
+        <v>193.9093412301728</v>
       </c>
       <c r="E47" t="n">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
       <c r="B48" t="n">
-        <v>708.8963538308759</v>
+        <v>526.4531100744005</v>
       </c>
       <c r="C48" t="n">
-        <v>340.8874280955126</v>
+        <v>169.3936996544072</v>
       </c>
       <c r="D48" t="n">
-        <v>1055.298262478808</v>
+        <v>878.767696571114</v>
       </c>
       <c r="E48" t="n">
-        <v>456</v>
+        <v>228</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44999</v>
+        <v>44988</v>
       </c>
       <c r="B49" t="n">
-        <v>651.6210322650396</v>
+        <v>349.836446525949</v>
       </c>
       <c r="C49" t="n">
-        <v>302.1396523848508</v>
+        <v>-20.06274737234804</v>
       </c>
       <c r="D49" t="n">
-        <v>1031.826101147428</v>
+        <v>710.0501434802487</v>
       </c>
       <c r="E49" t="n">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
       <c r="B50" t="n">
-        <v>402.2305919159406</v>
+        <v>677.3948890991337</v>
       </c>
       <c r="C50" t="n">
-        <v>73.4045359718676</v>
+        <v>296.368255648246</v>
       </c>
       <c r="D50" t="n">
-        <v>768.710414390083</v>
+        <v>1029.645031976409</v>
       </c>
       <c r="E50" t="n">
-        <v>828</v>
+        <v>456</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
       <c r="B51" t="n">
-        <v>331.2341092151436</v>
+        <v>648.587803337865</v>
       </c>
       <c r="C51" t="n">
-        <v>-41.23308693028421</v>
+        <v>301.5001818260579</v>
       </c>
       <c r="D51" t="n">
-        <v>688.0317107093178</v>
+        <v>987.37739027574</v>
       </c>
       <c r="E51" t="n">
-        <v>480</v>
+        <v>348</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
       <c r="B52" t="n">
-        <v>591.0529310287876</v>
+        <v>407.4828304716476</v>
       </c>
       <c r="C52" t="n">
-        <v>227.5575412648354</v>
+        <v>64.12099208720684</v>
       </c>
       <c r="D52" t="n">
-        <v>962.0526577252842</v>
+        <v>769.9759812457875</v>
       </c>
       <c r="E52" t="n">
-        <v>516</v>
+        <v>828</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
       <c r="B53" t="n">
-        <v>1228.700318712678</v>
+        <v>325.0932083934219</v>
       </c>
       <c r="C53" t="n">
-        <v>879.5067636935501</v>
+        <v>-15.37166360550595</v>
       </c>
       <c r="D53" t="n">
-        <v>1588.92149268063</v>
+        <v>663.0189007456361</v>
       </c>
       <c r="E53" t="n">
-        <v>576</v>
+        <v>480</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
       <c r="B54" t="n">
-        <v>1829.497578184008</v>
+        <v>540.6253181059249</v>
       </c>
       <c r="C54" t="n">
-        <v>1448.905897489912</v>
+        <v>212.1268472929864</v>
       </c>
       <c r="D54" t="n">
-        <v>2170.377132419786</v>
+        <v>890.7570588235387</v>
       </c>
       <c r="E54" t="n">
-        <v>1596</v>
+        <v>516</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B55" t="n">
-        <v>1765.601216261854</v>
+        <v>1154.183075891595</v>
       </c>
       <c r="C55" t="n">
-        <v>1439.327451151222</v>
+        <v>800.9909238355448</v>
       </c>
       <c r="D55" t="n">
-        <v>2135.166962413188</v>
+        <v>1511.988539534009</v>
       </c>
       <c r="E55" t="n">
-        <v>816</v>
+        <v>576</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
       <c r="B56" t="n">
-        <v>1490.143739021071</v>
+        <v>1748.5007396384</v>
       </c>
       <c r="C56" t="n">
-        <v>1127.078331400385</v>
+        <v>1386.720097245201</v>
       </c>
       <c r="D56" t="n">
-        <v>1870.106050662645</v>
+        <v>2102.642560640874</v>
       </c>
       <c r="E56" t="n">
-        <v>1080</v>
+        <v>1596</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45055</v>
+        <v>45040</v>
       </c>
       <c r="B57" t="n">
-        <v>675.8706802105264</v>
+        <v>1686.733521146072</v>
       </c>
       <c r="C57" t="n">
-        <v>317.5928495690597</v>
+        <v>1347.054534052115</v>
       </c>
       <c r="D57" t="n">
-        <v>1025.880078782267</v>
+        <v>2016.569063807215</v>
       </c>
       <c r="E57" t="n">
-        <v>384</v>
+        <v>816</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1456.254300770796</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1088.775168602745</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1829.176397022875</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B59" t="n">
+        <v>664.0095830128222</v>
+      </c>
+      <c r="C59" t="n">
+        <v>321.2464582697069</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1002.957344350751</v>
+      </c>
+      <c r="E59" t="n">
+        <v>384</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B58" t="n">
-        <v>77.39325162253911</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-269.3088121465941</v>
-      </c>
-      <c r="D58" t="n">
-        <v>431.0725419163522</v>
-      </c>
-      <c r="E58" t="n">
+      <c r="B60" t="n">
+        <v>81.20759679115073</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-293.6901954315863</v>
+      </c>
+      <c r="D60" t="n">
+        <v>412.1500159561903</v>
+      </c>
+      <c r="E60" t="n">
         <v>168</v>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="F60" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1677,22 +1717,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>64116.01842250087</v>
+        <v>65677.664470299</v>
       </c>
       <c r="C2" t="n">
-        <v>253.2114105298197</v>
+        <v>256.2765390555659</v>
       </c>
       <c r="D2" t="n">
-        <v>226.6098946763675</v>
+        <v>229.3151519889646</v>
       </c>
       <c r="E2" t="n">
-        <v>2.802486473305592</v>
+        <v>2.602457595376441</v>
       </c>
       <c r="F2" t="n">
-        <v>1.598485443567252</v>
+        <v>2.01719363005945</v>
       </c>
       <c r="G2" t="n">
-        <v>1.433432577003896</v>
+        <v>1.44185002866738</v>
       </c>
       <c r="H2" t="n">
         <v>0.8571428571428571</v>
@@ -1703,22 +1743,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>245889.7442025681</v>
+        <v>222594.8449449571</v>
       </c>
       <c r="C3" t="n">
-        <v>495.8727096771591</v>
+        <v>471.799581331901</v>
       </c>
       <c r="D3" t="n">
-        <v>399.468296314615</v>
+        <v>391.1749209128581</v>
       </c>
       <c r="E3" t="n">
-        <v>2.071464024263624</v>
+        <v>1.944631357071182</v>
       </c>
       <c r="F3" t="n">
-        <v>1.163726980713056</v>
+        <v>1.067075393561363</v>
       </c>
       <c r="G3" t="n">
-        <v>1.26624440283391</v>
+        <v>1.299147082620101</v>
       </c>
       <c r="H3" t="n">
         <v>0.5142857142857143</v>
@@ -1729,25 +1769,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>66548.60623158337</v>
+        <v>61437.97050244817</v>
       </c>
       <c r="C4" t="n">
-        <v>257.970165390464</v>
+        <v>247.8668402639776</v>
       </c>
       <c r="D4" t="n">
-        <v>199.7268668809243</v>
+        <v>192.732000372927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5059691224606538</v>
+        <v>0.4810586324249186</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3503588527238674</v>
+        <v>0.3798375171656673</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4260223240071873</v>
+        <v>0.4337977354827636</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8510638297872347</v>
+        <v>0.8367346938775512</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBALEI4421040/OBALEI4421040_Sell in_metricas.xlsx
+++ b/modelos/OBALEI4421040/OBALEI4421040_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,99 +473,99 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44698</v>
+        <v>44691</v>
       </c>
       <c r="B2" t="n">
-        <v>153.2426816942817</v>
+        <v>579.7191283320424</v>
       </c>
       <c r="C2" t="n">
-        <v>-227.7301242518576</v>
+        <v>184.5297177971058</v>
       </c>
       <c r="D2" t="n">
-        <v>493.5811821549115</v>
+        <v>937.9232328404956</v>
       </c>
       <c r="E2" t="n">
-        <v>372</v>
+        <v>744</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44691</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
       <c r="B3" t="n">
-        <v>194.2499273422657</v>
+        <v>123.343580991763</v>
       </c>
       <c r="C3" t="n">
-        <v>-177.5546294521508</v>
+        <v>-239.6879398029635</v>
       </c>
       <c r="D3" t="n">
-        <v>564.7829673694413</v>
+        <v>490.7944891600179</v>
       </c>
       <c r="E3" t="n">
-        <v>168</v>
+        <v>372</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44698</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44712</v>
+        <v>44705</v>
       </c>
       <c r="B4" t="n">
-        <v>390.4050718462403</v>
+        <v>167.909717558291</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.816298996023813</v>
+        <v>-202.6767252539928</v>
       </c>
       <c r="D4" t="n">
-        <v>760.8401506703012</v>
+        <v>527.7963414547247</v>
       </c>
       <c r="E4" t="n">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44715</v>
+        <v>44712</v>
       </c>
       <c r="B5" t="n">
-        <v>107.7837098461873</v>
+        <v>355.8391976496574</v>
       </c>
       <c r="C5" t="n">
-        <v>-277.8035431633205</v>
+        <v>-24.57551270997083</v>
       </c>
       <c r="D5" t="n">
-        <v>489.0342188221943</v>
+        <v>728.6972494381553</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44712</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44719</v>
+        <v>44715</v>
       </c>
       <c r="B6" t="n">
-        <v>359.1889558436364</v>
+        <v>144.8171835747758</v>
       </c>
       <c r="C6" t="n">
-        <v>7.400719537365259</v>
+        <v>-215.6950964505758</v>
       </c>
       <c r="D6" t="n">
-        <v>749.5897635093422</v>
+        <v>514.4023022086808</v>
       </c>
       <c r="E6" t="n">
-        <v>516</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>44712</v>
@@ -573,99 +573,99 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44726</v>
+        <v>44719</v>
       </c>
       <c r="B7" t="n">
-        <v>200.6266127974376</v>
+        <v>338.0498680314101</v>
       </c>
       <c r="C7" t="n">
-        <v>-151.0392598162649</v>
+        <v>-69.37377031363256</v>
       </c>
       <c r="D7" t="n">
-        <v>546.5249886579388</v>
+        <v>707.0974738288461</v>
       </c>
       <c r="E7" t="n">
-        <v>600</v>
+        <v>516</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44719</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44733</v>
+        <v>44726</v>
       </c>
       <c r="B8" t="n">
-        <v>112.0831125576741</v>
+        <v>186.7023990701545</v>
       </c>
       <c r="C8" t="n">
-        <v>-264.4257020803796</v>
+        <v>-182.5167306026087</v>
       </c>
       <c r="D8" t="n">
-        <v>501.6821182943946</v>
+        <v>556.2264219419744</v>
       </c>
       <c r="E8" t="n">
-        <v>312</v>
+        <v>600</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44726</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
       <c r="B9" t="n">
-        <v>124.8316292878586</v>
+        <v>87.4354961053558</v>
       </c>
       <c r="C9" t="n">
-        <v>-221.3078553524286</v>
+        <v>-281.8313328831591</v>
       </c>
       <c r="D9" t="n">
-        <v>489.8197780571019</v>
+        <v>452.1878978743252</v>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44733</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44743</v>
+        <v>44740</v>
       </c>
       <c r="B10" t="n">
-        <v>-146.4758827285608</v>
+        <v>107.0763391664144</v>
       </c>
       <c r="C10" t="n">
-        <v>-494.919838712129</v>
+        <v>-288.3183320468429</v>
       </c>
       <c r="D10" t="n">
-        <v>218.0769944278647</v>
+        <v>444.4236674954252</v>
       </c>
       <c r="E10" t="n">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44747</v>
+        <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>181.60116629701</v>
+        <v>-81.71079213951396</v>
       </c>
       <c r="C11" t="n">
-        <v>-151.6191970430014</v>
+        <v>-457.85294788303</v>
       </c>
       <c r="D11" t="n">
-        <v>544.0326131853585</v>
+        <v>263.3721285622165</v>
       </c>
       <c r="E11" t="n">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>44740</v>
@@ -673,199 +673,199 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
       <c r="B12" t="n">
-        <v>298.7096433302447</v>
+        <v>175.6326077244725</v>
       </c>
       <c r="C12" t="n">
-        <v>-82.1389291946346</v>
+        <v>-198.8212968827535</v>
       </c>
       <c r="D12" t="n">
-        <v>666.2613764234557</v>
+        <v>567.1183882448722</v>
       </c>
       <c r="E12" t="n">
-        <v>456</v>
+        <v>204</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44747</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
       <c r="B13" t="n">
-        <v>307.5368232690138</v>
+        <v>275.0413778271495</v>
       </c>
       <c r="C13" t="n">
-        <v>-61.01522798034357</v>
+        <v>-87.49576088883613</v>
       </c>
       <c r="D13" t="n">
-        <v>667.6196406514276</v>
+        <v>627.3549487299962</v>
       </c>
       <c r="E13" t="n">
-        <v>288</v>
+        <v>456</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="B14" t="n">
-        <v>287.1832406183439</v>
+        <v>304.4218551371542</v>
       </c>
       <c r="C14" t="n">
-        <v>-79.62311864606993</v>
+        <v>-46.72080175494544</v>
       </c>
       <c r="D14" t="n">
-        <v>654.1384026974555</v>
+        <v>671.9154115617844</v>
       </c>
       <c r="E14" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
       <c r="B15" t="n">
-        <v>315.381864694876</v>
+        <v>270.8415808903005</v>
       </c>
       <c r="C15" t="n">
-        <v>-58.9789082335227</v>
+        <v>-90.52606554689609</v>
       </c>
       <c r="D15" t="n">
-        <v>685.6942682455133</v>
+        <v>639.5617474483956</v>
       </c>
       <c r="E15" t="n">
-        <v>408</v>
+        <v>300</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
       <c r="B16" t="n">
-        <v>358.0508388313752</v>
+        <v>287.572885345944</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.623090583373018</v>
+        <v>-82.40251861312979</v>
       </c>
       <c r="D16" t="n">
-        <v>735.0301928459057</v>
+        <v>672.0070721423655</v>
       </c>
       <c r="E16" t="n">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
       <c r="B17" t="n">
-        <v>280.0200394664045</v>
+        <v>324.598999448869</v>
       </c>
       <c r="C17" t="n">
-        <v>-79.15975275459741</v>
+        <v>-45.41166996656889</v>
       </c>
       <c r="D17" t="n">
-        <v>641.8120119836741</v>
+        <v>666.7631862010734</v>
       </c>
       <c r="E17" t="n">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
       <c r="B18" t="n">
-        <v>160.3994382706018</v>
+        <v>278.416929623647</v>
       </c>
       <c r="C18" t="n">
-        <v>-230.8552252642469</v>
+        <v>-69.40274993534436</v>
       </c>
       <c r="D18" t="n">
-        <v>519.8137441168484</v>
+        <v>623.477573814294</v>
       </c>
       <c r="E18" t="n">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
       <c r="B19" t="n">
-        <v>107.3996518718224</v>
+        <v>165.2432947347559</v>
       </c>
       <c r="C19" t="n">
-        <v>-257.7001481340274</v>
+        <v>-187.0317770606287</v>
       </c>
       <c r="D19" t="n">
-        <v>476.3646130790491</v>
+        <v>502.0444473163803</v>
       </c>
       <c r="E19" t="n">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B20" t="n">
-        <v>-126.0379367935238</v>
+        <v>88.12626771259676</v>
       </c>
       <c r="C20" t="n">
-        <v>-476.4970375143885</v>
+        <v>-300.8146823156682</v>
       </c>
       <c r="D20" t="n">
-        <v>243.6613077029808</v>
+        <v>424.6191982693013</v>
       </c>
       <c r="E20" t="n">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B21" t="n">
-        <v>232.1403349048772</v>
+        <v>-86.10847832883528</v>
       </c>
       <c r="C21" t="n">
-        <v>-123.6855065390218</v>
+        <v>-442.6977333393873</v>
       </c>
       <c r="D21" t="n">
-        <v>613.541512000156</v>
+        <v>275.4050974099258</v>
       </c>
       <c r="E21" t="n">
-        <v>408</v>
+        <v>192</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>44803</v>
@@ -873,199 +873,199 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>528.7763794612606</v>
+        <v>189.0514146412967</v>
       </c>
       <c r="C22" t="n">
-        <v>153.752041971158</v>
+        <v>-168.4318899486713</v>
       </c>
       <c r="D22" t="n">
-        <v>880.8829367111742</v>
+        <v>549.2408398105702</v>
       </c>
       <c r="E22" t="n">
-        <v>672</v>
+        <v>408</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="B23" t="n">
-        <v>726.3286048361022</v>
+        <v>485.8115652715892</v>
       </c>
       <c r="C23" t="n">
-        <v>385.735569080779</v>
+        <v>115.8976124666077</v>
       </c>
       <c r="D23" t="n">
-        <v>1085.845770739897</v>
+        <v>860.0435324802015</v>
       </c>
       <c r="E23" t="n">
-        <v>312</v>
+        <v>672</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B24" t="n">
-        <v>708.7417773698567</v>
+        <v>745.0429610056838</v>
       </c>
       <c r="C24" t="n">
-        <v>329.1770234988425</v>
+        <v>385.0735941398022</v>
       </c>
       <c r="D24" t="n">
-        <v>1052.479018177928</v>
+        <v>1113.819424627066</v>
       </c>
       <c r="E24" t="n">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B25" t="n">
-        <v>543.197788516685</v>
+        <v>784.3547844016996</v>
       </c>
       <c r="C25" t="n">
-        <v>181.1220656555878</v>
+        <v>427.6886817182336</v>
       </c>
       <c r="D25" t="n">
-        <v>931.8004193699464</v>
+        <v>1105.928742106668</v>
       </c>
       <c r="E25" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B26" t="n">
-        <v>397.1809954626112</v>
+        <v>623.5614133358405</v>
       </c>
       <c r="C26" t="n">
-        <v>39.85845580428645</v>
+        <v>260.940761043792</v>
       </c>
       <c r="D26" t="n">
-        <v>765.5113172919151</v>
+        <v>970.5411152998173</v>
       </c>
       <c r="E26" t="n">
-        <v>540</v>
+        <v>384</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B27" t="n">
-        <v>352.1591086646682</v>
+        <v>432.2709783737868</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.960494506647339</v>
+        <v>91.16131883306389</v>
       </c>
       <c r="D27" t="n">
-        <v>713.3536996050676</v>
+        <v>771.019378015517</v>
       </c>
       <c r="E27" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B28" t="n">
-        <v>347.4764352672216</v>
+        <v>325.8555147786238</v>
       </c>
       <c r="C28" t="n">
-        <v>-14.3497292964784</v>
+        <v>-33.37003425401669</v>
       </c>
       <c r="D28" t="n">
-        <v>717.120004550774</v>
+        <v>678.6937538667883</v>
       </c>
       <c r="E28" t="n">
-        <v>756</v>
+        <v>480</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B29" t="n">
-        <v>70.80437254867584</v>
+        <v>300.6244818494656</v>
       </c>
       <c r="C29" t="n">
-        <v>-321.5792019859012</v>
+        <v>-36.0072799744877</v>
       </c>
       <c r="D29" t="n">
-        <v>392.6570451371698</v>
+        <v>673.6584497050236</v>
       </c>
       <c r="E29" t="n">
-        <v>468</v>
+        <v>756</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B30" t="n">
-        <v>232.8634053627283</v>
+        <v>-1.310111508754893</v>
       </c>
       <c r="C30" t="n">
-        <v>-103.29985648877</v>
+        <v>-360.0755204282219</v>
       </c>
       <c r="D30" t="n">
-        <v>611.4644616242691</v>
+        <v>360.0381895832558</v>
       </c>
       <c r="E30" t="n">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B31" t="n">
-        <v>484.9743839171761</v>
+        <v>269.3915634256761</v>
       </c>
       <c r="C31" t="n">
-        <v>116.6840250797165</v>
+        <v>-88.45987090374236</v>
       </c>
       <c r="D31" t="n">
-        <v>849.7130586232129</v>
+        <v>623.8204972023897</v>
       </c>
       <c r="E31" t="n">
-        <v>492</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>44866</v>
@@ -1073,279 +1073,279 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B32" t="n">
-        <v>499.017979944806</v>
+        <v>495.7160435385985</v>
       </c>
       <c r="C32" t="n">
-        <v>162.9906715047115</v>
+        <v>120.4201309352456</v>
       </c>
       <c r="D32" t="n">
-        <v>861.1089224480797</v>
+        <v>876.1409804726817</v>
       </c>
       <c r="E32" t="n">
-        <v>348</v>
+        <v>492</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B33" t="n">
-        <v>505.0026740580493</v>
+        <v>496.0437991663193</v>
       </c>
       <c r="C33" t="n">
-        <v>162.9600259559665</v>
+        <v>179.0704912420253</v>
       </c>
       <c r="D33" t="n">
-        <v>857.3898060534156</v>
+        <v>869.8231988569692</v>
       </c>
       <c r="E33" t="n">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B34" t="n">
-        <v>469.7552345732984</v>
+        <v>484.4572017722899</v>
       </c>
       <c r="C34" t="n">
-        <v>96.78148216827047</v>
+        <v>122.0931660987108</v>
       </c>
       <c r="D34" t="n">
-        <v>812.9866965123254</v>
+        <v>847.7479283157753</v>
       </c>
       <c r="E34" t="n">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B35" t="n">
-        <v>185.9004844637435</v>
+        <v>427.5580805685364</v>
       </c>
       <c r="C35" t="n">
-        <v>-150.1387742520425</v>
+        <v>60.97551485717725</v>
       </c>
       <c r="D35" t="n">
-        <v>516.6600120371609</v>
+        <v>796.8866646537616</v>
       </c>
       <c r="E35" t="n">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44908</v>
+        <v>44897</v>
       </c>
       <c r="B36" t="n">
-        <v>473.1756116105303</v>
+        <v>211.4641374650289</v>
       </c>
       <c r="C36" t="n">
-        <v>107.6803110144765</v>
+        <v>-149.4190031002601</v>
       </c>
       <c r="D36" t="n">
-        <v>832.9536055621854</v>
+        <v>570.1899291182912</v>
       </c>
       <c r="E36" t="n">
-        <v>828</v>
+        <v>600</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B37" t="n">
-        <v>619.903063745577</v>
+        <v>488.0310352778259</v>
       </c>
       <c r="C37" t="n">
-        <v>264.4803108939792</v>
+        <v>146.1732879345966</v>
       </c>
       <c r="D37" t="n">
-        <v>950.2611682756171</v>
+        <v>847.5159588611574</v>
       </c>
       <c r="E37" t="n">
-        <v>348</v>
+        <v>828</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="B38" t="n">
-        <v>702.2092018193756</v>
+        <v>604.2246759347994</v>
       </c>
       <c r="C38" t="n">
-        <v>343.2266325394253</v>
+        <v>241.5115994022072</v>
       </c>
       <c r="D38" t="n">
-        <v>1055.164522445802</v>
+        <v>940.5558488203393</v>
       </c>
       <c r="E38" t="n">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B39" t="n">
-        <v>645.7639580335323</v>
+        <v>672.1457207338229</v>
       </c>
       <c r="C39" t="n">
-        <v>290.8464958368265</v>
+        <v>309.2056355691738</v>
       </c>
       <c r="D39" t="n">
-        <v>990.0926694004899</v>
+        <v>1046.533090262426</v>
       </c>
       <c r="E39" t="n">
-        <v>468</v>
+        <v>324</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B40" t="n">
-        <v>479.9531028101449</v>
+        <v>606.108966772332</v>
       </c>
       <c r="C40" t="n">
-        <v>117.4078032129218</v>
+        <v>254.6268828855731</v>
       </c>
       <c r="D40" t="n">
-        <v>860.9968108895899</v>
+        <v>967.5728816795856</v>
       </c>
       <c r="E40" t="n">
-        <v>744</v>
+        <v>468</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B41" t="n">
-        <v>333.6553880519985</v>
+        <v>461.9295039468913</v>
       </c>
       <c r="C41" t="n">
-        <v>-8.95487067697286</v>
+        <v>136.5405166883181</v>
       </c>
       <c r="D41" t="n">
-        <v>710.2339837618106</v>
+        <v>814.6441780315622</v>
       </c>
       <c r="E41" t="n">
-        <v>1032</v>
+        <v>744</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B42" t="n">
-        <v>305.8989588561618</v>
+        <v>341.5414170028094</v>
       </c>
       <c r="C42" t="n">
-        <v>-52.86549365369123</v>
+        <v>-22.90253862767584</v>
       </c>
       <c r="D42" t="n">
-        <v>677.5824617520676</v>
+        <v>676.0375049329936</v>
       </c>
       <c r="E42" t="n">
-        <v>480</v>
+        <v>1032</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B43" t="n">
-        <v>283.6380665489658</v>
+        <v>301.0593674743571</v>
       </c>
       <c r="C43" t="n">
-        <v>-71.3851333406427</v>
+        <v>-87.73104074417789</v>
       </c>
       <c r="D43" t="n">
-        <v>644.7995776314931</v>
+        <v>667.1627489128847</v>
       </c>
       <c r="E43" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B44" t="n">
-        <v>23.89083287045323</v>
+        <v>226.3891330646336</v>
       </c>
       <c r="C44" t="n">
-        <v>-339.894196250863</v>
+        <v>-104.8481567334201</v>
       </c>
       <c r="D44" t="n">
-        <v>368.758249570845</v>
+        <v>598.3425481770521</v>
       </c>
       <c r="E44" t="n">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B45" t="n">
-        <v>250.2159314113971</v>
+        <v>17.35724402566682</v>
       </c>
       <c r="C45" t="n">
-        <v>-113.5895468017576</v>
+        <v>-344.5318659233806</v>
       </c>
       <c r="D45" t="n">
-        <v>615.5782996296138</v>
+        <v>359.0389834028098</v>
       </c>
       <c r="E45" t="n">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>44957</v>
@@ -1353,59 +1353,59 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B46" t="n">
-        <v>248.0213690132851</v>
+        <v>191.7997501267148</v>
       </c>
       <c r="C46" t="n">
-        <v>-116.8940685510022</v>
+        <v>-191.9166617717514</v>
       </c>
       <c r="D46" t="n">
-        <v>591.1808100479317</v>
+        <v>545.8419080746593</v>
       </c>
       <c r="E46" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B47" t="n">
-        <v>-145.5709568117006</v>
+        <v>272.2964151018645</v>
       </c>
       <c r="C47" t="n">
-        <v>-503.7329294630585</v>
+        <v>-66.99685640770385</v>
       </c>
       <c r="D47" t="n">
-        <v>193.9093412301728</v>
+        <v>609.2551600305517</v>
       </c>
       <c r="E47" t="n">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B48" t="n">
-        <v>526.4531100744005</v>
+        <v>26.49795674474477</v>
       </c>
       <c r="C48" t="n">
-        <v>169.3936996544072</v>
+        <v>-338.3985242052001</v>
       </c>
       <c r="D48" t="n">
-        <v>878.767696571114</v>
+        <v>386.0427625097304</v>
       </c>
       <c r="E48" t="n">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>44978</v>
@@ -1413,39 +1413,39 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B49" t="n">
-        <v>349.836446525949</v>
+        <v>771.5192054029546</v>
       </c>
       <c r="C49" t="n">
-        <v>-20.06274737234804</v>
+        <v>411.1744503096741</v>
       </c>
       <c r="D49" t="n">
-        <v>710.0501434802487</v>
+        <v>1133.214582914813</v>
       </c>
       <c r="E49" t="n">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B50" t="n">
-        <v>677.3948890991337</v>
+        <v>606.5438859326248</v>
       </c>
       <c r="C50" t="n">
-        <v>296.368255648246</v>
+        <v>260.1936146946087</v>
       </c>
       <c r="D50" t="n">
-        <v>1029.645031976409</v>
+        <v>986.2934729508585</v>
       </c>
       <c r="E50" t="n">
-        <v>456</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>44985</v>
@@ -1453,201 +1453,221 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B51" t="n">
-        <v>648.587803337865</v>
+        <v>848.5390954052542</v>
       </c>
       <c r="C51" t="n">
-        <v>301.5001818260579</v>
+        <v>482.1329748314595</v>
       </c>
       <c r="D51" t="n">
-        <v>987.37739027574</v>
+        <v>1193.734617489174</v>
       </c>
       <c r="E51" t="n">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B52" t="n">
-        <v>407.4828304716476</v>
+        <v>666.4163800671669</v>
       </c>
       <c r="C52" t="n">
-        <v>64.12099208720684</v>
+        <v>303.0356057002241</v>
       </c>
       <c r="D52" t="n">
-        <v>769.9759812457875</v>
+        <v>1027.762243275663</v>
       </c>
       <c r="E52" t="n">
-        <v>828</v>
+        <v>348</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B53" t="n">
-        <v>325.0932083934219</v>
+        <v>332.2934099014329</v>
       </c>
       <c r="C53" t="n">
-        <v>-15.37166360550595</v>
+        <v>-46.33245338363206</v>
       </c>
       <c r="D53" t="n">
-        <v>663.0189007456361</v>
+        <v>642.0227698530105</v>
       </c>
       <c r="E53" t="n">
-        <v>480</v>
+        <v>828</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B54" t="n">
-        <v>540.6253181059249</v>
+        <v>261.8856956772813</v>
       </c>
       <c r="C54" t="n">
-        <v>212.1268472929864</v>
+        <v>-105.8255402842969</v>
       </c>
       <c r="D54" t="n">
-        <v>890.7570588235387</v>
+        <v>606.0278151107302</v>
       </c>
       <c r="E54" t="n">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B55" t="n">
-        <v>1154.183075891595</v>
+        <v>545.321374199063</v>
       </c>
       <c r="C55" t="n">
-        <v>800.9909238355448</v>
+        <v>205.1497985326118</v>
       </c>
       <c r="D55" t="n">
-        <v>1511.988539534009</v>
+        <v>900.7439559116118</v>
       </c>
       <c r="E55" t="n">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B56" t="n">
-        <v>1748.5007396384</v>
+        <v>1204.488736648229</v>
       </c>
       <c r="C56" t="n">
-        <v>1386.720097245201</v>
+        <v>825.8025935167379</v>
       </c>
       <c r="D56" t="n">
-        <v>2102.642560640874</v>
+        <v>1553.597225206384</v>
       </c>
       <c r="E56" t="n">
-        <v>1596</v>
+        <v>576</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B57" t="n">
-        <v>1686.733521146072</v>
+        <v>1804.466938615884</v>
       </c>
       <c r="C57" t="n">
-        <v>1347.054534052115</v>
+        <v>1455.211217173241</v>
       </c>
       <c r="D57" t="n">
-        <v>2016.569063807215</v>
+        <v>2178.38190615881</v>
       </c>
       <c r="E57" t="n">
-        <v>816</v>
+        <v>1596</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B58" t="n">
-        <v>1456.254300770796</v>
+        <v>1708.28534679921</v>
       </c>
       <c r="C58" t="n">
-        <v>1088.775168602745</v>
+        <v>1351.991859252066</v>
       </c>
       <c r="D58" t="n">
-        <v>1829.176397022875</v>
+        <v>2035.750424742435</v>
       </c>
       <c r="E58" t="n">
-        <v>1080</v>
+        <v>816</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B59" t="n">
-        <v>664.0095830128222</v>
+        <v>1436.843293550483</v>
       </c>
       <c r="C59" t="n">
-        <v>321.2464582697069</v>
+        <v>1065.571614991404</v>
       </c>
       <c r="D59" t="n">
-        <v>1002.957344350751</v>
+        <v>1817.667157141079</v>
       </c>
       <c r="E59" t="n">
-        <v>384</v>
+        <v>1080</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B60" t="n">
+        <v>629.193331801248</v>
+      </c>
+      <c r="C60" t="n">
+        <v>282.3855653537609</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1007.011452146923</v>
+      </c>
+      <c r="E60" t="n">
+        <v>384</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B60" t="n">
-        <v>81.20759679115073</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-293.6901954315863</v>
-      </c>
-      <c r="D60" t="n">
-        <v>412.1500159561903</v>
-      </c>
-      <c r="E60" t="n">
+      <c r="B61" t="n">
+        <v>48.32253002409828</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-304.6945929987335</v>
+      </c>
+      <c r="D61" t="n">
+        <v>420.92939197534</v>
+      </c>
+      <c r="E61" t="n">
         <v>168</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F61" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1717,25 +1737,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>65677.664470299</v>
+        <v>85066.53203386377</v>
       </c>
       <c r="C2" t="n">
-        <v>256.2765390555659</v>
+        <v>291.6616739200812</v>
       </c>
       <c r="D2" t="n">
-        <v>229.3151519889646</v>
+        <v>258.8215031301043</v>
       </c>
       <c r="E2" t="n">
-        <v>2.602457595376441</v>
+        <v>3.379539710534192</v>
       </c>
       <c r="F2" t="n">
-        <v>2.01719363005945</v>
+        <v>1.567436056524403</v>
       </c>
       <c r="G2" t="n">
-        <v>1.44185002866738</v>
+        <v>1.529407278944618</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -1743,25 +1763,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>222594.8449449571</v>
+        <v>226115.2081687335</v>
       </c>
       <c r="C3" t="n">
-        <v>471.799581331901</v>
+        <v>475.5157286239158</v>
       </c>
       <c r="D3" t="n">
-        <v>391.1749209128581</v>
+        <v>399.4802451380636</v>
       </c>
       <c r="E3" t="n">
-        <v>1.944631357071182</v>
+        <v>2.602407528384893</v>
       </c>
       <c r="F3" t="n">
-        <v>1.067075393561363</v>
+        <v>1.048143164086295</v>
       </c>
       <c r="G3" t="n">
-        <v>1.299147082620101</v>
+        <v>1.470764979716886</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5142857142857143</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="4">
@@ -1769,25 +1789,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>61437.97050244817</v>
+        <v>73235.24587153581</v>
       </c>
       <c r="C4" t="n">
-        <v>247.8668402639776</v>
+        <v>270.6201135753509</v>
       </c>
       <c r="D4" t="n">
-        <v>192.732000372927</v>
+        <v>210.6552293392833</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4810586324249186</v>
+        <v>0.5195376571638111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3798375171656673</v>
+        <v>0.3766027199295431</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4337977354827636</v>
+        <v>0.4783391279759908</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8367346938775512</v>
+        <v>0.8200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBALEI4421040/OBALEI4421040_Sell in_metricas.xlsx
+++ b/modelos/OBALEI4421040/OBALEI4421040_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,1201 +473,1161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44691</v>
+        <v>44705</v>
       </c>
       <c r="B2" t="n">
-        <v>579.7191283320424</v>
+        <v>230.2097745789541</v>
       </c>
       <c r="C2" t="n">
-        <v>184.5297177971058</v>
+        <v>-130.7202214256021</v>
       </c>
       <c r="D2" t="n">
-        <v>937.9232328404956</v>
+        <v>604.343959096459</v>
       </c>
       <c r="E2" t="n">
-        <v>744</v>
+        <v>168</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44684</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44698</v>
+        <v>44712</v>
       </c>
       <c r="B3" t="n">
-        <v>123.343580991763</v>
+        <v>389.1299910579706</v>
       </c>
       <c r="C3" t="n">
-        <v>-239.6879398029635</v>
+        <v>28.50113608670218</v>
       </c>
       <c r="D3" t="n">
-        <v>490.7944891600179</v>
+        <v>790.0293215250701</v>
       </c>
       <c r="E3" t="n">
-        <v>372</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44691</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44705</v>
+        <v>44715</v>
       </c>
       <c r="B4" t="n">
-        <v>167.909717558291</v>
+        <v>81.67007925509549</v>
       </c>
       <c r="C4" t="n">
-        <v>-202.6767252539928</v>
+        <v>-282.9828719537186</v>
       </c>
       <c r="D4" t="n">
-        <v>527.7963414547247</v>
+        <v>443.9441286321753</v>
       </c>
       <c r="E4" t="n">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44698</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B5" t="n">
+        <v>346.9368022199618</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-43.36926903208452</v>
+      </c>
+      <c r="D5" t="n">
+        <v>725.2649456773303</v>
+      </c>
+      <c r="E5" t="n">
+        <v>516</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44712</v>
-      </c>
-      <c r="B5" t="n">
-        <v>355.8391976496574</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-24.57551270997083</v>
-      </c>
-      <c r="D5" t="n">
-        <v>728.6972494381553</v>
-      </c>
-      <c r="E5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44705</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44715</v>
+        <v>44726</v>
       </c>
       <c r="B6" t="n">
-        <v>144.8171835747758</v>
+        <v>209.5122763333541</v>
       </c>
       <c r="C6" t="n">
-        <v>-215.6950964505758</v>
+        <v>-180.5471777351405</v>
       </c>
       <c r="D6" t="n">
-        <v>514.4023022086808</v>
+        <v>606.0412762109266</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44712</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44719</v>
+        <v>44733</v>
       </c>
       <c r="B7" t="n">
-        <v>338.0498680314101</v>
+        <v>128.8079138862558</v>
       </c>
       <c r="C7" t="n">
-        <v>-69.37377031363256</v>
+        <v>-230.9069326363362</v>
       </c>
       <c r="D7" t="n">
-        <v>707.0974738288461</v>
+        <v>489.1505830284135</v>
       </c>
       <c r="E7" t="n">
-        <v>516</v>
+        <v>312</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44712</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44726</v>
+        <v>44740</v>
       </c>
       <c r="B8" t="n">
-        <v>186.7023990701545</v>
+        <v>146.5283408118299</v>
       </c>
       <c r="C8" t="n">
-        <v>-182.5167306026087</v>
+        <v>-263.1976626256824</v>
       </c>
       <c r="D8" t="n">
-        <v>556.2264219419744</v>
+        <v>520.4870577137318</v>
       </c>
       <c r="E8" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44719</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44733</v>
+        <v>44743</v>
       </c>
       <c r="B9" t="n">
-        <v>87.4354961053558</v>
+        <v>-132.6241401679124</v>
       </c>
       <c r="C9" t="n">
-        <v>-281.8313328831591</v>
+        <v>-504.5821563020804</v>
       </c>
       <c r="D9" t="n">
-        <v>452.1878978743252</v>
+        <v>278.9754303904261</v>
       </c>
       <c r="E9" t="n">
-        <v>312</v>
+        <v>144</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44726</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B10" t="n">
+        <v>219.6964257209171</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-175.0544958593771</v>
+      </c>
+      <c r="D10" t="n">
+        <v>600.904139395519</v>
+      </c>
+      <c r="E10" t="n">
+        <v>204</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44740</v>
-      </c>
-      <c r="B10" t="n">
-        <v>107.0763391664144</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-288.3183320468429</v>
-      </c>
-      <c r="D10" t="n">
-        <v>444.4236674954252</v>
-      </c>
-      <c r="E10" t="n">
-        <v>120</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44733</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44743</v>
+        <v>44754</v>
       </c>
       <c r="B11" t="n">
-        <v>-81.71079213951396</v>
+        <v>299.1872685566036</v>
       </c>
       <c r="C11" t="n">
-        <v>-457.85294788303</v>
+        <v>-78.68544234290987</v>
       </c>
       <c r="D11" t="n">
-        <v>263.3721285622165</v>
+        <v>665.6343522610284</v>
       </c>
       <c r="E11" t="n">
-        <v>144</v>
+        <v>456</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44740</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44747</v>
+        <v>44761</v>
       </c>
       <c r="B12" t="n">
-        <v>175.6326077244725</v>
+        <v>316.8611387199564</v>
       </c>
       <c r="C12" t="n">
-        <v>-198.8212968827535</v>
+        <v>-67.46396435126078</v>
       </c>
       <c r="D12" t="n">
-        <v>567.1183882448722</v>
+        <v>689.5755929317702</v>
       </c>
       <c r="E12" t="n">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44740</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44754</v>
+        <v>44768</v>
       </c>
       <c r="B13" t="n">
-        <v>275.0413778271495</v>
+        <v>275.7408181665079</v>
       </c>
       <c r="C13" t="n">
-        <v>-87.49576088883613</v>
+        <v>-105.9556888435663</v>
       </c>
       <c r="D13" t="n">
-        <v>627.3549487299962</v>
+        <v>626.1422402140879</v>
       </c>
       <c r="E13" t="n">
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44747</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44761</v>
+        <v>44775</v>
       </c>
       <c r="B14" t="n">
-        <v>304.4218551371542</v>
+        <v>300.1609171939296</v>
       </c>
       <c r="C14" t="n">
-        <v>-46.72080175494544</v>
+        <v>-69.64892999516377</v>
       </c>
       <c r="D14" t="n">
-        <v>671.9154115617844</v>
+        <v>691.7691612663629</v>
       </c>
       <c r="E14" t="n">
-        <v>288</v>
+        <v>408</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44754</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44768</v>
+        <v>44782</v>
       </c>
       <c r="B15" t="n">
-        <v>270.8415808903005</v>
+        <v>347.001978721085</v>
       </c>
       <c r="C15" t="n">
-        <v>-90.52606554689609</v>
+        <v>-33.72081457616298</v>
       </c>
       <c r="D15" t="n">
-        <v>639.5617474483956</v>
+        <v>706.2876612505557</v>
       </c>
       <c r="E15" t="n">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44761</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44775</v>
+        <v>44789</v>
       </c>
       <c r="B16" t="n">
-        <v>287.572885345944</v>
+        <v>275.2259855121478</v>
       </c>
       <c r="C16" t="n">
-        <v>-82.40251861312979</v>
+        <v>-102.1700250285252</v>
       </c>
       <c r="D16" t="n">
-        <v>672.0070721423655</v>
+        <v>655.6804105510347</v>
       </c>
       <c r="E16" t="n">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44768</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44782</v>
+        <v>44796</v>
       </c>
       <c r="B17" t="n">
-        <v>324.598999448869</v>
+        <v>155.1440232101544</v>
       </c>
       <c r="C17" t="n">
-        <v>-45.41166996656889</v>
+        <v>-205.8914109156209</v>
       </c>
       <c r="D17" t="n">
-        <v>666.7631862010734</v>
+        <v>528.8687699072819</v>
       </c>
       <c r="E17" t="n">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44775</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44789</v>
+        <v>44803</v>
       </c>
       <c r="B18" t="n">
-        <v>278.416929623647</v>
+        <v>116.4222455837117</v>
       </c>
       <c r="C18" t="n">
-        <v>-69.40274993534436</v>
+        <v>-281.0531544002685</v>
       </c>
       <c r="D18" t="n">
-        <v>623.477573814294</v>
+        <v>507.8177269782909</v>
       </c>
       <c r="E18" t="n">
-        <v>384</v>
+        <v>228</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44782</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44796</v>
+        <v>44806</v>
       </c>
       <c r="B19" t="n">
-        <v>165.2432947347559</v>
+        <v>-125.6268369118121</v>
       </c>
       <c r="C19" t="n">
-        <v>-187.0317770606287</v>
+        <v>-470.2530595429374</v>
       </c>
       <c r="D19" t="n">
-        <v>502.0444473163803</v>
+        <v>251.3325751345272</v>
       </c>
       <c r="E19" t="n">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44789</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B20" t="n">
+        <v>247.9819559149131</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-138.4571458961527</v>
+      </c>
+      <c r="D20" t="n">
+        <v>595.6158897855713</v>
+      </c>
+      <c r="E20" t="n">
+        <v>408</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44803</v>
-      </c>
-      <c r="B20" t="n">
-        <v>88.12626771259676</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-300.8146823156682</v>
-      </c>
-      <c r="D20" t="n">
-        <v>424.6191982693013</v>
-      </c>
-      <c r="E20" t="n">
-        <v>228</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44796</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44806</v>
+        <v>44817</v>
       </c>
       <c r="B21" t="n">
-        <v>-86.10847832883528</v>
+        <v>525.9803945813426</v>
       </c>
       <c r="C21" t="n">
-        <v>-442.6977333393873</v>
+        <v>156.117564092223</v>
       </c>
       <c r="D21" t="n">
-        <v>275.4050974099258</v>
+        <v>896.7647352647945</v>
       </c>
       <c r="E21" t="n">
-        <v>192</v>
+        <v>672</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44803</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44810</v>
+        <v>44824</v>
       </c>
       <c r="B22" t="n">
-        <v>189.0514146412967</v>
+        <v>721.3672840471768</v>
       </c>
       <c r="C22" t="n">
-        <v>-168.4318899486713</v>
+        <v>361.3077801737022</v>
       </c>
       <c r="D22" t="n">
-        <v>549.2408398105702</v>
+        <v>1089.041051343503</v>
       </c>
       <c r="E22" t="n">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44803</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44817</v>
+        <v>44831</v>
       </c>
       <c r="B23" t="n">
-        <v>485.8115652715892</v>
+        <v>710.9736426964864</v>
       </c>
       <c r="C23" t="n">
-        <v>115.8976124666077</v>
+        <v>351.8644392750805</v>
       </c>
       <c r="D23" t="n">
-        <v>860.0435324802015</v>
+        <v>1044.884937519817</v>
       </c>
       <c r="E23" t="n">
-        <v>672</v>
+        <v>372</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44810</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44824</v>
+        <v>44838</v>
       </c>
       <c r="B24" t="n">
-        <v>745.0429610056838</v>
+        <v>545.3029680748916</v>
       </c>
       <c r="C24" t="n">
-        <v>385.0735941398022</v>
+        <v>188.7712726306264</v>
       </c>
       <c r="D24" t="n">
-        <v>1113.819424627066</v>
+        <v>912.3417186882881</v>
       </c>
       <c r="E24" t="n">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44817</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44831</v>
+        <v>44845</v>
       </c>
       <c r="B25" t="n">
-        <v>784.3547844016996</v>
+        <v>385.9903420061899</v>
       </c>
       <c r="C25" t="n">
-        <v>427.6886817182336</v>
+        <v>-6.77838195679572</v>
       </c>
       <c r="D25" t="n">
-        <v>1105.928742106668</v>
+        <v>724.1868504568607</v>
       </c>
       <c r="E25" t="n">
-        <v>372</v>
+        <v>540</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44824</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
       <c r="B26" t="n">
-        <v>623.5614133358405</v>
+        <v>342.3211711405974</v>
       </c>
       <c r="C26" t="n">
-        <v>260.940761043792</v>
+        <v>-44.38508866264876</v>
       </c>
       <c r="D26" t="n">
-        <v>970.5411152998173</v>
+        <v>706.4101762910173</v>
       </c>
       <c r="E26" t="n">
-        <v>384</v>
+        <v>480</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44831</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
       <c r="B27" t="n">
-        <v>432.2709783737868</v>
+        <v>345.3996955467646</v>
       </c>
       <c r="C27" t="n">
-        <v>91.16131883306389</v>
+        <v>-40.41904242255376</v>
       </c>
       <c r="D27" t="n">
-        <v>771.019378015517</v>
+        <v>700.7985827377258</v>
       </c>
       <c r="E27" t="n">
-        <v>540</v>
+        <v>756</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44852</v>
+        <v>44865</v>
       </c>
       <c r="B28" t="n">
-        <v>325.8555147786238</v>
+        <v>36.67383857531915</v>
       </c>
       <c r="C28" t="n">
-        <v>-33.37003425401669</v>
+        <v>-318.4550657876075</v>
       </c>
       <c r="D28" t="n">
-        <v>678.6937538667883</v>
+        <v>401.477078957397</v>
       </c>
       <c r="E28" t="n">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44859</v>
+        <v>44869</v>
       </c>
       <c r="B29" t="n">
-        <v>300.6244818494656</v>
+        <v>214.96575993655</v>
       </c>
       <c r="C29" t="n">
-        <v>-36.0072799744877</v>
+        <v>-117.2449722986406</v>
       </c>
       <c r="D29" t="n">
-        <v>673.6584497050236</v>
+        <v>584.1415735898645</v>
       </c>
       <c r="E29" t="n">
-        <v>756</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44852</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44865</v>
+        <v>44873</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.310111508754893</v>
+        <v>480.4652174233629</v>
       </c>
       <c r="C30" t="n">
-        <v>-360.0755204282219</v>
+        <v>103.5850096890635</v>
       </c>
       <c r="D30" t="n">
-        <v>360.0381895832558</v>
+        <v>862.283934825571</v>
       </c>
       <c r="E30" t="n">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44869</v>
+        <v>44880</v>
       </c>
       <c r="B31" t="n">
-        <v>269.3915634256761</v>
+        <v>466.1717367132434</v>
       </c>
       <c r="C31" t="n">
-        <v>-88.45987090374236</v>
+        <v>108.6755116462657</v>
       </c>
       <c r="D31" t="n">
-        <v>623.8204972023897</v>
+        <v>843.2275529067515</v>
       </c>
       <c r="E31" t="n">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44866</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
       <c r="B32" t="n">
-        <v>495.7160435385985</v>
+        <v>437.1577423576606</v>
       </c>
       <c r="C32" t="n">
-        <v>120.4201309352456</v>
+        <v>75.35264509948375</v>
       </c>
       <c r="D32" t="n">
-        <v>876.1409804726817</v>
+        <v>774.3847082223399</v>
       </c>
       <c r="E32" t="n">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44866</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="B33" t="n">
-        <v>496.0437991663193</v>
+        <v>417.3154973675037</v>
       </c>
       <c r="C33" t="n">
-        <v>179.0704912420253</v>
+        <v>25.98759106369278</v>
       </c>
       <c r="D33" t="n">
-        <v>869.8231988569692</v>
+        <v>756.5990824622294</v>
       </c>
       <c r="E33" t="n">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="B34" t="n">
-        <v>484.4572017722899</v>
+        <v>142.2460738290922</v>
       </c>
       <c r="C34" t="n">
-        <v>122.0931660987108</v>
+        <v>-235.7160681137701</v>
       </c>
       <c r="D34" t="n">
-        <v>847.7479283157753</v>
+        <v>508.9317462247254</v>
       </c>
       <c r="E34" t="n">
-        <v>468</v>
+        <v>600</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
       <c r="B35" t="n">
-        <v>427.5580805685364</v>
+        <v>517.1796352697338</v>
       </c>
       <c r="C35" t="n">
-        <v>60.97551485717725</v>
+        <v>159.3758770127003</v>
       </c>
       <c r="D35" t="n">
-        <v>796.8866646537616</v>
+        <v>881.4715695606473</v>
       </c>
       <c r="E35" t="n">
-        <v>420</v>
+        <v>828</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44887</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44897</v>
+        <v>44915</v>
       </c>
       <c r="B36" t="n">
-        <v>211.4641374650289</v>
+        <v>645.7466790216133</v>
       </c>
       <c r="C36" t="n">
-        <v>-149.4190031002601</v>
+        <v>275.528712893199</v>
       </c>
       <c r="D36" t="n">
-        <v>570.1899291182912</v>
+        <v>1017.277828333829</v>
       </c>
       <c r="E36" t="n">
-        <v>600</v>
+        <v>348</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
       <c r="B37" t="n">
-        <v>488.0310352778259</v>
+        <v>700.3367506784954</v>
       </c>
       <c r="C37" t="n">
-        <v>146.1732879345966</v>
+        <v>346.4407713199361</v>
       </c>
       <c r="D37" t="n">
-        <v>847.5159588611574</v>
+        <v>1053.657511693734</v>
       </c>
       <c r="E37" t="n">
-        <v>828</v>
+        <v>324</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
       <c r="B38" t="n">
-        <v>604.2246759347994</v>
+        <v>629.9670924754198</v>
       </c>
       <c r="C38" t="n">
-        <v>241.5115994022072</v>
+        <v>267.2282038606412</v>
       </c>
       <c r="D38" t="n">
-        <v>940.5558488203393</v>
+        <v>997.2842275336272</v>
       </c>
       <c r="E38" t="n">
-        <v>348</v>
+        <v>468</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
       <c r="B39" t="n">
-        <v>672.1457207338229</v>
+        <v>480.7086529218105</v>
       </c>
       <c r="C39" t="n">
-        <v>309.2056355691738</v>
+        <v>128.8792225485118</v>
       </c>
       <c r="D39" t="n">
-        <v>1046.533090262426</v>
+        <v>844.815092428775</v>
       </c>
       <c r="E39" t="n">
-        <v>324</v>
+        <v>744</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="B40" t="n">
-        <v>606.108966772332</v>
+        <v>360.5571762970327</v>
       </c>
       <c r="C40" t="n">
-        <v>254.6268828855731</v>
+        <v>16.84221347558754</v>
       </c>
       <c r="D40" t="n">
-        <v>967.5728816795856</v>
+        <v>737.3179305532697</v>
       </c>
       <c r="E40" t="n">
-        <v>468</v>
+        <v>1032</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B41" t="n">
-        <v>461.9295039468913</v>
+        <v>329.2119862314846</v>
       </c>
       <c r="C41" t="n">
-        <v>136.5405166883181</v>
+        <v>-41.45966249309186</v>
       </c>
       <c r="D41" t="n">
-        <v>814.6441780315622</v>
+        <v>710.5357256689828</v>
       </c>
       <c r="E41" t="n">
-        <v>744</v>
+        <v>480</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
       <c r="B42" t="n">
-        <v>341.5414170028094</v>
+        <v>267.5579030043809</v>
       </c>
       <c r="C42" t="n">
-        <v>-22.90253862767584</v>
+        <v>-102.8084311505477</v>
       </c>
       <c r="D42" t="n">
-        <v>676.0375049329936</v>
+        <v>620.5427246669439</v>
       </c>
       <c r="E42" t="n">
-        <v>1032</v>
+        <v>180</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44950</v>
+        <v>44960</v>
       </c>
       <c r="B43" t="n">
-        <v>301.0593674743571</v>
+        <v>-13.9713193922096</v>
       </c>
       <c r="C43" t="n">
-        <v>-87.73104074417789</v>
+        <v>-381.3861803876889</v>
       </c>
       <c r="D43" t="n">
-        <v>667.1627489128847</v>
+        <v>360.5534173927768</v>
       </c>
       <c r="E43" t="n">
-        <v>480</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B44" t="n">
+        <v>224.5514725453168</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-137.3365471794542</v>
+      </c>
+      <c r="D44" t="n">
+        <v>597.6920762282854</v>
+      </c>
+      <c r="E44" t="n">
+        <v>228</v>
+      </c>
+      <c r="F44" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B44" t="n">
-        <v>226.3891330646336</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-104.8481567334201</v>
-      </c>
-      <c r="D44" t="n">
-        <v>598.3425481770521</v>
-      </c>
-      <c r="E44" t="n">
-        <v>180</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44960</v>
+        <v>44971</v>
       </c>
       <c r="B45" t="n">
-        <v>17.35724402566682</v>
+        <v>283.7670022442707</v>
       </c>
       <c r="C45" t="n">
-        <v>-344.5318659233806</v>
+        <v>-80.77804517624666</v>
       </c>
       <c r="D45" t="n">
-        <v>359.0389834028098</v>
+        <v>638.5368966374263</v>
       </c>
       <c r="E45" t="n">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44957</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="B46" t="n">
-        <v>191.7997501267148</v>
+        <v>-1.677673082543187</v>
       </c>
       <c r="C46" t="n">
-        <v>-191.9166617717514</v>
+        <v>-376.834825494127</v>
       </c>
       <c r="D46" t="n">
-        <v>545.8419080746593</v>
+        <v>352.516070239537</v>
       </c>
       <c r="E46" t="n">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44957</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44971</v>
+        <v>44985</v>
       </c>
       <c r="B47" t="n">
-        <v>272.2964151018645</v>
+        <v>717.2798450594622</v>
       </c>
       <c r="C47" t="n">
-        <v>-66.99685640770385</v>
+        <v>357.6919384694184</v>
       </c>
       <c r="D47" t="n">
-        <v>609.2551600305517</v>
+        <v>1076.233953687442</v>
       </c>
       <c r="E47" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44980</v>
+        <v>44988</v>
       </c>
       <c r="B48" t="n">
-        <v>26.49795674474477</v>
+        <v>511.483299528214</v>
       </c>
       <c r="C48" t="n">
-        <v>-338.3985242052001</v>
+        <v>145.5422385012837</v>
       </c>
       <c r="D48" t="n">
-        <v>386.0427625097304</v>
+        <v>894.5903968631892</v>
       </c>
       <c r="E48" t="n">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B49" t="n">
+        <v>831.0485022024403</v>
+      </c>
+      <c r="C49" t="n">
+        <v>458.2305956473978</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1186.696547459722</v>
+      </c>
+      <c r="E49" t="n">
+        <v>456</v>
+      </c>
+      <c r="F49" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B49" t="n">
-        <v>771.5192054029546</v>
-      </c>
-      <c r="C49" t="n">
-        <v>411.1744503096741</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1133.214582914813</v>
-      </c>
-      <c r="E49" t="n">
-        <v>228</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>606.5438859326248</v>
+        <v>668.1393158734332</v>
       </c>
       <c r="C50" t="n">
-        <v>260.1936146946087</v>
+        <v>303.3064984942289</v>
       </c>
       <c r="D50" t="n">
-        <v>986.2934729508585</v>
+        <v>1029.33588200257</v>
       </c>
       <c r="E50" t="n">
-        <v>108</v>
+        <v>348</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44985</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="B51" t="n">
-        <v>848.5390954052542</v>
+        <v>355.2715066820547</v>
       </c>
       <c r="C51" t="n">
-        <v>482.1329748314595</v>
+        <v>-5.783681759818515</v>
       </c>
       <c r="D51" t="n">
-        <v>1193.734617489174</v>
+        <v>699.0192795162059</v>
       </c>
       <c r="E51" t="n">
-        <v>456</v>
+        <v>828</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B52" t="n">
-        <v>666.4163800671669</v>
+        <v>293.4344020071822</v>
       </c>
       <c r="C52" t="n">
-        <v>303.0356057002241</v>
+        <v>-77.54283377959977</v>
       </c>
       <c r="D52" t="n">
-        <v>1027.762243275663</v>
+        <v>630.4249803947013</v>
       </c>
       <c r="E52" t="n">
-        <v>348</v>
+        <v>480</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="B53" t="n">
-        <v>332.2934099014329</v>
+        <v>560.2910426662492</v>
       </c>
       <c r="C53" t="n">
-        <v>-46.33245338363206</v>
+        <v>224.018830140393</v>
       </c>
       <c r="D53" t="n">
-        <v>642.0227698530105</v>
+        <v>903.1340233214925</v>
       </c>
       <c r="E53" t="n">
-        <v>828</v>
+        <v>516</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="B54" t="n">
-        <v>261.8856956772813</v>
+        <v>1205.165167892449</v>
       </c>
       <c r="C54" t="n">
-        <v>-105.8255402842969</v>
+        <v>817.4497887407013</v>
       </c>
       <c r="D54" t="n">
-        <v>606.0278151107302</v>
+        <v>1535.278017327959</v>
       </c>
       <c r="E54" t="n">
-        <v>480</v>
+        <v>576</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="B55" t="n">
-        <v>545.321374199063</v>
+        <v>1769.64483258487</v>
       </c>
       <c r="C55" t="n">
-        <v>205.1497985326118</v>
+        <v>1386.2769054552</v>
       </c>
       <c r="D55" t="n">
-        <v>900.7439559116118</v>
+        <v>2125.148124651935</v>
       </c>
       <c r="E55" t="n">
-        <v>516</v>
+        <v>1596</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B56" t="n">
-        <v>1204.488736648229</v>
+        <v>1656.746756216478</v>
       </c>
       <c r="C56" t="n">
-        <v>825.8025935167379</v>
+        <v>1269.399958999086</v>
       </c>
       <c r="D56" t="n">
-        <v>1553.597225206384</v>
+        <v>2012.197584171459</v>
       </c>
       <c r="E56" t="n">
-        <v>576</v>
+        <v>816</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="B57" t="n">
-        <v>1804.466938615884</v>
+        <v>1412.937092625736</v>
       </c>
       <c r="C57" t="n">
-        <v>1455.211217173241</v>
+        <v>1060.949289628122</v>
       </c>
       <c r="D57" t="n">
-        <v>2178.38190615881</v>
+        <v>1794.780051965672</v>
       </c>
       <c r="E57" t="n">
-        <v>1596</v>
+        <v>1080</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45027</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45040</v>
+        <v>45055</v>
       </c>
       <c r="B58" t="n">
-        <v>1708.28534679921</v>
+        <v>629.0851611047477</v>
       </c>
       <c r="C58" t="n">
-        <v>1351.991859252066</v>
+        <v>270.80407434035</v>
       </c>
       <c r="D58" t="n">
-        <v>2035.750424742435</v>
+        <v>1001.197890990854</v>
       </c>
       <c r="E58" t="n">
-        <v>816</v>
+        <v>384</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B59" t="n">
-        <v>1436.843293550483</v>
+        <v>76.00356363405706</v>
       </c>
       <c r="C59" t="n">
-        <v>1065.571614991404</v>
+        <v>-264.5830912042978</v>
       </c>
       <c r="D59" t="n">
-        <v>1817.667157141079</v>
+        <v>440.7402643961971</v>
       </c>
       <c r="E59" t="n">
-        <v>1080</v>
+        <v>168</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="B60" t="n">
-        <v>629.193331801248</v>
-      </c>
-      <c r="C60" t="n">
-        <v>282.3855653537609</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1007.011452146923</v>
-      </c>
-      <c r="E60" t="n">
-        <v>384</v>
-      </c>
-      <c r="F60" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B61" t="n">
-        <v>48.32253002409828</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-304.6945929987335</v>
-      </c>
-      <c r="D61" t="n">
-        <v>420.92939197534</v>
-      </c>
-      <c r="E61" t="n">
-        <v>168</v>
-      </c>
-      <c r="F61" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1737,25 +1697,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>85066.53203386377</v>
+        <v>84386.73573689748</v>
       </c>
       <c r="C2" t="n">
-        <v>291.6616739200812</v>
+        <v>290.4939512914124</v>
       </c>
       <c r="D2" t="n">
-        <v>258.8215031301043</v>
+        <v>255.7279087661003</v>
       </c>
       <c r="E2" t="n">
-        <v>3.379539710534192</v>
+        <v>2.515474897653031</v>
       </c>
       <c r="F2" t="n">
-        <v>1.567436056524403</v>
+        <v>1.92100097338828</v>
       </c>
       <c r="G2" t="n">
-        <v>1.529407278944618</v>
+        <v>1.592971552912747</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7142857142857142</v>
       </c>
     </row>
     <row r="3">
@@ -1763,25 +1723,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>226115.2081687335</v>
+        <v>229211.5145657143</v>
       </c>
       <c r="C3" t="n">
-        <v>475.5157286239158</v>
+        <v>478.7603936894889</v>
       </c>
       <c r="D3" t="n">
-        <v>399.4802451380636</v>
+        <v>407.8513287878919</v>
       </c>
       <c r="E3" t="n">
-        <v>2.602407528384893</v>
+        <v>1.899677739429682</v>
       </c>
       <c r="F3" t="n">
-        <v>1.048143164086295</v>
+        <v>1.654306442249021</v>
       </c>
       <c r="G3" t="n">
-        <v>1.470764979716886</v>
+        <v>1.433650294726935</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="4">
@@ -1789,25 +1749,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>73235.24587153581</v>
+        <v>66972.3521603047</v>
       </c>
       <c r="C4" t="n">
-        <v>270.6201135753509</v>
+        <v>258.7901701384824</v>
       </c>
       <c r="D4" t="n">
-        <v>210.6552293392833</v>
+        <v>199.9486885113391</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5195376571638111</v>
+        <v>0.5091248860779899</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3766027199295431</v>
+        <v>0.3620912482233971</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4783391279759908</v>
+        <v>0.4383055015283979</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8200000000000003</v>
+        <v>0.8333333333333328</v>
       </c>
     </row>
   </sheetData>
